--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1470029.549073406</v>
+        <v>-1472303.569200843</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>306.2256510038243</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0459034711861</v>
+        <v>14.04590347118615</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.67391009422548</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>70.91951642794449</v>
+        <v>70.91951642794433</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.3799638097597</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5940585367451</v>
+        <v>217.594058536745</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2451061843206</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -744,19 +744,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>42.573140395116</v>
+        <v>48.86358009399022</v>
       </c>
       <c r="H3" t="n">
         <v>105.7408432413276</v>
       </c>
       <c r="I3" t="n">
-        <v>66.24376372694837</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>58.40598506653467</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.192419416944</v>
       </c>
       <c r="T3" t="n">
         <v>197.4542208317152</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>126.8460656690632</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>201.0844410919915</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>117.9182899943767</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>319.1118552341723</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -944,25 +944,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>288.6356480386092</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>126.0887386816666</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>127.0075787948428</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>186.9830597526703</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>187.471879054261</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>106.0725670814544</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>234.4970761400735</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>55.32762243302277</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>181.1375494786013</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>17.15794421524345</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>252.3125937116087</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,10 +1859,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>5.381988681949366</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>78.75523752775979</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>13.89072837997169</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>114.4746605491556</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>181.4487096095768</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>85.78770402380465</v>
+        <v>258.5428919804015</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>39.77808571121529</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,16 +3004,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>251.2573538773325</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433734</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C35" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F35" t="n">
         <v>359.9009091231189</v>
@@ -3281,7 +3281,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515441</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W35" t="n">
         <v>302.2658320988205</v>
@@ -3332,7 +3332,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572692</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124496</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128494</v>
@@ -3487,7 +3487,7 @@
         <v>239.5478617179985</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y37" t="n">
         <v>171.6095167335023</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C38" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F38" t="n">
         <v>359.9009091231189</v>
@@ -3518,7 +3518,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958333</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U38" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W38" t="n">
         <v>302.2658320988205</v>
@@ -3569,7 +3569,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247658</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124557</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128494</v>
@@ -3724,7 +3724,7 @@
         <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y40" t="n">
         <v>171.6095167335023</v>
@@ -3749,7 +3749,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231205</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
         <v>363.9465890348609</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231205</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
         <v>363.9465890348609</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124556</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>775.4394469334804</v>
+        <v>460.4205587628584</v>
       </c>
       <c r="C2" t="n">
-        <v>775.4394469334804</v>
+        <v>460.4205587628584</v>
       </c>
       <c r="D2" t="n">
-        <v>775.4394469334804</v>
+        <v>102.1548601561079</v>
       </c>
       <c r="E2" t="n">
-        <v>466.1206075356781</v>
+        <v>102.1548601561079</v>
       </c>
       <c r="F2" t="n">
-        <v>466.1206075356781</v>
+        <v>102.1548601561079</v>
       </c>
       <c r="G2" t="n">
-        <v>47.89242221124762</v>
+        <v>87.96707887208152</v>
       </c>
       <c r="H2" t="n">
-        <v>47.89242221124762</v>
+        <v>47.8924222112477</v>
       </c>
       <c r="I2" t="n">
-        <v>47.89242221124762</v>
+        <v>47.8924222112477</v>
       </c>
       <c r="J2" t="n">
-        <v>141.6681220034132</v>
+        <v>141.6681220034138</v>
       </c>
       <c r="K2" t="n">
-        <v>402.958391397121</v>
+        <v>402.9583913971221</v>
       </c>
       <c r="L2" t="n">
-        <v>779.3887029883413</v>
+        <v>779.3887029883429</v>
       </c>
       <c r="M2" t="n">
-        <v>1214.846500462593</v>
+        <v>1214.846500462595</v>
       </c>
       <c r="N2" t="n">
-        <v>1642.718462811275</v>
+        <v>1642.718462811278</v>
       </c>
       <c r="O2" t="n">
-        <v>2001.558186006095</v>
+        <v>2001.558186006098</v>
       </c>
       <c r="P2" t="n">
-        <v>2270.145204794928</v>
+        <v>2270.145204794932</v>
       </c>
       <c r="Q2" t="n">
-        <v>2394.621110562381</v>
+        <v>2394.621110562385</v>
       </c>
       <c r="R2" t="n">
-        <v>2322.985235382639</v>
+        <v>2322.985235382643</v>
       </c>
       <c r="S2" t="n">
-        <v>2322.985235382639</v>
+        <v>2140.783251736421</v>
       </c>
       <c r="T2" t="n">
-        <v>2103.193257062695</v>
+        <v>1920.991273416477</v>
       </c>
       <c r="U2" t="n">
-        <v>1849.410321522977</v>
+        <v>1920.991273416477</v>
       </c>
       <c r="V2" t="n">
-        <v>1518.347434179406</v>
+        <v>1589.928386072906</v>
       </c>
       <c r="W2" t="n">
-        <v>1165.578778909292</v>
+        <v>1237.159730802792</v>
       </c>
       <c r="X2" t="n">
-        <v>1165.578778909292</v>
+        <v>1237.159730802792</v>
       </c>
       <c r="Y2" t="n">
-        <v>775.4394469334804</v>
+        <v>847.0203988269802</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>893.776871468956</v>
+        <v>673.9805033038297</v>
       </c>
       <c r="C3" t="n">
-        <v>719.323842187829</v>
+        <v>499.5274740227027</v>
       </c>
       <c r="D3" t="n">
-        <v>570.3894325265777</v>
+        <v>350.5930643614514</v>
       </c>
       <c r="E3" t="n">
-        <v>411.1519775211222</v>
+        <v>350.5930643614514</v>
       </c>
       <c r="F3" t="n">
-        <v>264.6174195480072</v>
+        <v>204.0585063883364</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6142474317284</v>
+        <v>154.7013547782452</v>
       </c>
       <c r="H3" t="n">
-        <v>114.8053148647308</v>
+        <v>47.8924222112477</v>
       </c>
       <c r="I3" t="n">
-        <v>47.89242221124762</v>
+        <v>47.8924222112477</v>
       </c>
       <c r="J3" t="n">
-        <v>47.89242221124762</v>
+        <v>47.8924222112477</v>
       </c>
       <c r="K3" t="n">
-        <v>142.1232764428671</v>
+        <v>142.1232764428693</v>
       </c>
       <c r="L3" t="n">
-        <v>516.6368228394529</v>
+        <v>516.6368228394554</v>
       </c>
       <c r="M3" t="n">
-        <v>1005.655688461796</v>
+        <v>1005.655688461799</v>
       </c>
       <c r="N3" t="n">
-        <v>1523.324441723571</v>
+        <v>1523.324441723575</v>
       </c>
       <c r="O3" t="n">
-        <v>1930.474537907024</v>
+        <v>1930.474537907027</v>
       </c>
       <c r="P3" t="n">
-        <v>2240.245317403384</v>
+        <v>2240.245317403387</v>
       </c>
       <c r="Q3" t="n">
-        <v>2394.621110562381</v>
+        <v>2394.621110562385</v>
       </c>
       <c r="R3" t="n">
-        <v>2394.621110562381</v>
+        <v>2335.625166050734</v>
       </c>
       <c r="S3" t="n">
-        <v>2394.621110562381</v>
+        <v>2174.824742397255</v>
       </c>
       <c r="T3" t="n">
-        <v>2195.172402651558</v>
+        <v>1975.376034486431</v>
       </c>
       <c r="U3" t="n">
-        <v>1966.993472419455</v>
+        <v>1747.197104254329</v>
       </c>
       <c r="V3" t="n">
-        <v>1731.841364187712</v>
+        <v>1512.044996022586</v>
       </c>
       <c r="W3" t="n">
-        <v>1477.604007459511</v>
+        <v>1257.807639294384</v>
       </c>
       <c r="X3" t="n">
-        <v>1269.752507253978</v>
+        <v>1049.956139088852</v>
       </c>
       <c r="Y3" t="n">
-        <v>1061.992208489024</v>
+        <v>842.1958403238978</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.89242221124762</v>
+        <v>47.8924222112477</v>
       </c>
       <c r="C4" t="n">
-        <v>47.89242221124762</v>
+        <v>47.8924222112477</v>
       </c>
       <c r="D4" t="n">
-        <v>47.89242221124762</v>
+        <v>47.8924222112477</v>
       </c>
       <c r="E4" t="n">
-        <v>47.89242221124762</v>
+        <v>47.8924222112477</v>
       </c>
       <c r="F4" t="n">
-        <v>47.89242221124762</v>
+        <v>47.8924222112477</v>
       </c>
       <c r="G4" t="n">
-        <v>47.89242221124762</v>
+        <v>47.8924222112477</v>
       </c>
       <c r="H4" t="n">
-        <v>47.89242221124762</v>
+        <v>47.8924222112477</v>
       </c>
       <c r="I4" t="n">
-        <v>47.89242221124762</v>
+        <v>47.8924222112477</v>
       </c>
       <c r="J4" t="n">
-        <v>47.89242221124762</v>
+        <v>47.8924222112477</v>
       </c>
       <c r="K4" t="n">
-        <v>90.69073642000079</v>
+        <v>90.690736420001</v>
       </c>
       <c r="L4" t="n">
-        <v>200.9842782663079</v>
+        <v>200.9842782663083</v>
       </c>
       <c r="M4" t="n">
-        <v>327.6624769420741</v>
+        <v>327.6624769420746</v>
       </c>
       <c r="N4" t="n">
-        <v>456.7631676148796</v>
+        <v>456.7631676148803</v>
       </c>
       <c r="O4" t="n">
-        <v>559.9922554890146</v>
+        <v>559.9922554890155</v>
       </c>
       <c r="P4" t="n">
-        <v>624.8018913124549</v>
+        <v>624.801891312456</v>
       </c>
       <c r="Q4" t="n">
-        <v>624.8018913124549</v>
+        <v>624.801891312456</v>
       </c>
       <c r="R4" t="n">
-        <v>496.6745522527951</v>
+        <v>624.801891312456</v>
       </c>
       <c r="S4" t="n">
-        <v>496.6745522527951</v>
+        <v>624.801891312456</v>
       </c>
       <c r="T4" t="n">
-        <v>496.6745522527951</v>
+        <v>624.801891312456</v>
       </c>
       <c r="U4" t="n">
-        <v>496.6745522527951</v>
+        <v>421.6862942498383</v>
       </c>
       <c r="V4" t="n">
-        <v>496.6745522527951</v>
+        <v>167.0018060439514</v>
       </c>
       <c r="W4" t="n">
-        <v>496.6745522527951</v>
+        <v>47.8924222112477</v>
       </c>
       <c r="X4" t="n">
-        <v>268.6850013547777</v>
+        <v>47.8924222112477</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.89242221124762</v>
+        <v>47.8924222112477</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>919.5755868835438</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C5" t="n">
-        <v>550.6130699431321</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>550.6130699431321</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
         <v>221.3323618866839</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y5" t="n">
-        <v>919.5755868835438</v>
+        <v>2131.93457488582</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4756,19 @@
         <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230955</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="X7" t="n">
-        <v>181.3053441250782</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="Y7" t="n">
-        <v>181.3053441250782</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1878.515311311824</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C8" t="n">
-        <v>1878.515311311824</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>1520.249612705074</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>1134.461360106829</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>723.4754553172218</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>1893.744059709404</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>1704.378525311161</v>
       </c>
     </row>
     <row r="9">
@@ -4887,19 +4887,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5042,25 +5042,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>907.902424901197</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1772.421240554552</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2750.97154338438</v>
       </c>
       <c r="N11" t="n">
-        <v>3008.107474639232</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O11" t="n">
-        <v>3888.072124968687</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5078,7 +5078,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E12" t="n">
         <v>487.9678785494859</v>
@@ -5109,7 +5109,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>823.6560115477723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5206,43 +5206,43 @@
         <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892253</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598118</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518531</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952191</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="R13" t="n">
-        <v>1900.45697879862</v>
+        <v>1866.513008862234</v>
       </c>
       <c r="S13" t="n">
-        <v>1708.771094625446</v>
+        <v>1674.82712468906</v>
       </c>
       <c r="T13" t="n">
-        <v>1708.771094625446</v>
+        <v>1453.060509258586</v>
       </c>
       <c r="U13" t="n">
-        <v>1708.771094625446</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V13" t="n">
-        <v>1454.08660641956</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.08660641956</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X13" t="n">
-        <v>1226.097055521542</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y13" t="n">
-        <v>1005.304476378012</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5279,19 +5279,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1002.806306216376</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1453.840519464784</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
         <v>4195.497197679678</v>
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
         <v>487.9678785494859</v>
@@ -5346,7 +5346,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>556.371005353728</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="C16" t="n">
-        <v>556.371005353728</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="D16" t="n">
-        <v>556.371005353728</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="E16" t="n">
-        <v>556.371005353728</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1220.870226851287</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>966.0090210819851</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>738.0194701839678</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>738.0194701839678</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="17">
@@ -5492,46 +5492,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427196</v>
       </c>
       <c r="L17" t="n">
-        <v>1898.858917622688</v>
+        <v>1803.682313196075</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3316.966490094646</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3819.938960973983</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5613,7 +5613,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,7 +5622,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
         <v>2043.809373447819</v>
@@ -5631,7 +5631,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>584.526353703482</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>415.5901707755751</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5674,49 +5674,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518531</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952191</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862234</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862234</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1866.513008862234</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1577.410141987877</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1322.72565378199</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>1033.308483745029</v>
       </c>
       <c r="X19" t="n">
-        <v>391.866433243363</v>
+        <v>805.3189328470121</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998329</v>
+        <v>584.526353703482</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5780,22 +5780,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>755.2936629429144</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
-        <v>586.3574800150075</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>586.3574800150075</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5938,22 +5938,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1385.724257814702</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V22" t="n">
-        <v>1385.724257814702</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W22" t="n">
-        <v>1385.724257814702</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X22" t="n">
-        <v>1157.734706916684</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y22" t="n">
-        <v>936.9421277731541</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,25 +5987,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2628.734306600802</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3175.513123659584</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075805</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6014,25 +6014,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,28 +6160,28 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W25" t="n">
         <v>725.9916293201816</v>
@@ -6215,37 +6215,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2120.457898518748</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N26" t="n">
-        <v>2667.236715577531</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906985</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>877.1197344942216</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C28" t="n">
-        <v>708.1835515663147</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D28" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6385,7 +6385,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1412.556111024461</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W28" t="n">
-        <v>1325.901864535769</v>
+        <v>648.1187178345</v>
       </c>
       <c r="X28" t="n">
-        <v>1097.912313637752</v>
+        <v>648.1187178345</v>
       </c>
       <c r="Y28" t="n">
-        <v>877.1197344942216</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L29" t="n">
-        <v>1797.117834600129</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M29" t="n">
-        <v>2330.649739272054</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N29" t="n">
-        <v>2877.428556330836</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6531,7 +6531,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6540,28 +6540,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>823.6560115477723</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C31" t="n">
-        <v>654.7198286198654</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D31" t="n">
-        <v>654.7198286198654</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6622,7 +6622,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U31" t="n">
-        <v>1734.57685067423</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>1479.892362468343</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>1226.097055521542</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X31" t="n">
-        <v>1226.097055521542</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y31" t="n">
-        <v>1005.304476378012</v>
+        <v>452.5901955154776</v>
       </c>
     </row>
     <row r="32">
@@ -6689,34 +6689,34 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M32" t="n">
-        <v>2337.214217867999</v>
+        <v>2504.619866888351</v>
       </c>
       <c r="N32" t="n">
-        <v>2985.817436667298</v>
+        <v>3484.372139114997</v>
       </c>
       <c r="O32" t="n">
-        <v>3865.782086996753</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
         <v>4719.034655862919</v>
@@ -6753,52 +6753,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142067</v>
@@ -6807,16 +6807,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U33" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282341</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215043</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416707</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774082</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430883</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932522</v>
+        <v>364.4578361932526</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160448</v>
       </c>
       <c r="H34" t="n">
         <v>145.4370786819758</v>
@@ -6862,7 +6862,7 @@
         <v>437.6816203490195</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499222</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6880,19 +6880,19 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R34" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S34" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T34" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U34" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V34" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937959</v>
       </c>
       <c r="W34" t="n">
         <v>1276.596863849072</v>
@@ -6901,7 +6901,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036708</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6911,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398493</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668965</v>
       </c>
       <c r="I35" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>1092.155029011367</v>
+        <v>733.7666241029203</v>
       </c>
       <c r="L35" t="n">
-        <v>1706.925601880499</v>
+        <v>1184.800837351329</v>
       </c>
       <c r="M35" t="n">
-        <v>2240.457506552424</v>
+        <v>1718.332742023253</v>
       </c>
       <c r="N35" t="n">
-        <v>2787.236323611206</v>
+        <v>2265.111559082035</v>
       </c>
       <c r="O35" t="n">
-        <v>3290.208794490543</v>
+        <v>3145.07620941149</v>
       </c>
       <c r="P35" t="n">
-        <v>3684.983160847722</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603404</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834459</v>
@@ -6965,22 +6965,22 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U35" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="36">
@@ -7014,13 +7014,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697991</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899655</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257036</v>
+        <v>549.947493825703</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913831</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415467</v>
+        <v>350.043718641546</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643382</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302699</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I37" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q37" t="n">
         <v>2313.972430572251</v>
@@ -7123,22 +7123,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W37" t="n">
         <v>1262.182746297367</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519656</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
@@ -7172,28 +7172,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>1092.155029011367</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L38" t="n">
-        <v>1543.189242259776</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M38" t="n">
-        <v>2076.7211469317</v>
+        <v>2030.265665799119</v>
       </c>
       <c r="N38" t="n">
-        <v>2623.499963990483</v>
+        <v>2577.044482857901</v>
       </c>
       <c r="O38" t="n">
-        <v>3126.47243486982</v>
+        <v>3080.016953737238</v>
       </c>
       <c r="P38" t="n">
-        <v>3684.983160847722</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603404</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834459</v>
@@ -7202,22 +7202,22 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7227,73 +7227,73 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D39" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E39" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F39" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G39" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H39" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I39" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L39" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q39" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R39" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S39" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T39" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U39" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V39" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W39" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X39" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y39" t="n">
         <v>1124.393991965682</v>
@@ -7333,22 +7333,22 @@
         <v>172.7749345960313</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q40" t="n">
         <v>2313.972430572252</v>
@@ -7357,7 +7357,7 @@
         <v>2271.591606277853</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T40" t="n">
         <v>1953.038372570352</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398493</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668979</v>
       </c>
       <c r="I41" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>1092.155029011367</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L41" t="n">
-        <v>1706.925601880499</v>
+        <v>1496.733761127193</v>
       </c>
       <c r="M41" t="n">
-        <v>2240.457506552424</v>
+        <v>2030.265665799118</v>
       </c>
       <c r="N41" t="n">
-        <v>2787.236323611206</v>
+        <v>2577.0444828579</v>
       </c>
       <c r="O41" t="n">
-        <v>3290.208794490543</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P41" t="n">
-        <v>3684.983160847722</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603404</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834459</v>
@@ -7439,7 +7439,7 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U41" t="n">
         <v>3629.895850863832</v>
@@ -7451,10 +7451,10 @@
         <v>3040.963574146294</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D42" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F42" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H42" t="n">
         <v>100.1542084951512</v>
@@ -7488,13 +7488,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643392</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I43" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O43" t="n">
         <v>1910.743863481264</v>
@@ -7591,13 +7591,13 @@
         <v>2313.972430572252</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S43" t="n">
         <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U43" t="n">
         <v>1711.385138644068</v>
@@ -7606,13 +7606,13 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519667</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
@@ -7646,16 +7646,16 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>1045.699547878785</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L44" t="n">
-        <v>1496.733761127194</v>
+        <v>1063.76030595933</v>
       </c>
       <c r="M44" t="n">
-        <v>2030.265665799118</v>
+        <v>1597.292210631254</v>
       </c>
       <c r="N44" t="n">
         <v>2577.044482857901</v>
@@ -7664,10 +7664,10 @@
         <v>3080.016953737238</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094416</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603404</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834459</v>
@@ -7676,7 +7676,7 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
         <v>3629.895850863832</v>
@@ -7688,10 +7688,10 @@
         <v>3040.963574146294</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="45">
@@ -7725,19 +7725,19 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E46" t="n">
         <v>449.4840331913841</v>
@@ -7795,7 +7795,7 @@
         <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
@@ -7807,10 +7807,10 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7825,31 +7825,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T46" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>63.30438414308232</v>
+        <v>63.30438414308219</v>
       </c>
       <c r="K3" t="n">
-        <v>124.4356891176103</v>
+        <v>124.4356891176122</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>292.5685715191219</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8702,16 +8702,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>189.7998007892645</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>219.3344627260164</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,13 +8936,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>216.9877583263337</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>192.9047586887096</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>96.13798426930725</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,16 +9647,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>67.53663776704263</v>
+        <v>123.4719563470494</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>29.61882225792147</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>37.13651117804568</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>411.0304280899001</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>288.047814956104</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10358,16 +10358,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>102.8529310510271</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>89.52456338962088</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>131.2335379367266</v>
       </c>
       <c r="L35" t="n">
-        <v>165.3902622431551</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>446.3172993264895</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>165.3902622431554</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>8.633094239485217e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>165.3902622431551</v>
+        <v>122.1718867553234</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>277.2206841544149</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>8.970374914505271</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -22550,10 +22550,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>75.70471906843744</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.92934036895</v>
       </c>
       <c r="I2" t="n">
-        <v>162.0217950910659</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>68.45340444190413</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22702,31 +22702,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4272068744005</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.2147226037219</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.50046549375608</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>168.6047083422143</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>33.60453023701947</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>105.0742887270116</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>129.2760184313257</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004224</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>34.21040462498232</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>143.233484336263</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>67.67872511880938</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,16 +24178,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>272.3211098256412</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>105.0742887270142</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>200.7352943127864</v>
+        <v>27.98010635618948</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>140.053894470722</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -24892,16 +24892,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>35.26564445925845</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.35003119794419e-12</v>
       </c>
       <c r="I37" t="n">
-        <v>6.039613253960852e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>134380.7053731738</v>
+        <v>134380.7053731739</v>
       </c>
       <c r="C2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262498</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="E2" t="n">
-        <v>138978.6254104441</v>
+        <v>138978.6254104442</v>
       </c>
       <c r="F2" t="n">
         <v>138978.6254104441</v>
       </c>
       <c r="G2" t="n">
-        <v>138978.6254104441</v>
+        <v>138978.625410444</v>
       </c>
       <c r="H2" t="n">
-        <v>138978.6254104441</v>
+        <v>138978.625410444</v>
       </c>
       <c r="I2" t="n">
         <v>138978.6254104441</v>
@@ -26341,19 +26341,19 @@
         <v>138978.6254104441</v>
       </c>
       <c r="L2" t="n">
+        <v>143682.3097262498</v>
+      </c>
+      <c r="M2" t="n">
         <v>143682.3097262497</v>
       </c>
-      <c r="M2" t="n">
-        <v>143682.3097262496</v>
-      </c>
       <c r="N2" t="n">
+        <v>143682.3097262498</v>
+      </c>
+      <c r="O2" t="n">
+        <v>143682.3097262495</v>
+      </c>
+      <c r="P2" t="n">
         <v>143682.3097262497</v>
-      </c>
-      <c r="O2" t="n">
-        <v>143682.3097262496</v>
-      </c>
-      <c r="P2" t="n">
-        <v>143682.3097262496</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501884.6814771928</v>
+        <v>501884.6814771937</v>
       </c>
       <c r="C3" t="n">
-        <v>83720.31263904381</v>
+        <v>83720.31263904308</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>156634.5614629959</v>
+        <v>156634.5614629961</v>
       </c>
       <c r="K3" t="n">
-        <v>19465.25531848974</v>
+        <v>19465.25531848954</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487404</v>
+        <v>37580.10929487401</v>
       </c>
       <c r="M3" t="n">
-        <v>84741.61795950537</v>
+        <v>84741.61795950534</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194330.6670587447</v>
+        <v>194330.6670587445</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499387</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499387</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499386</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499384</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499384</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="L4" t="n">
-        <v>40547.88465321287</v>
+        <v>40547.88465321288</v>
       </c>
       <c r="M4" t="n">
-        <v>62292.78252777367</v>
+        <v>62292.78252777376</v>
       </c>
       <c r="N4" t="n">
+        <v>62292.78252777378</v>
+      </c>
+      <c r="O4" t="n">
         <v>62292.78252777376</v>
       </c>
-      <c r="O4" t="n">
-        <v>62292.78252777368</v>
-      </c>
       <c r="P4" t="n">
-        <v>62292.78252777373</v>
+        <v>62292.78252777378</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76841.33769237209</v>
+        <v>76841.33769237217</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26488,28 +26488,28 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>100332.6710141021</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-638675.9808551357</v>
+        <v>-638808.8609173233</v>
       </c>
       <c r="C6" t="n">
-        <v>-223961.5869039351</v>
+        <v>-223961.5869039343</v>
       </c>
       <c r="D6" t="n">
-        <v>-140241.2742648912</v>
+        <v>-140241.2742648913</v>
       </c>
       <c r="E6" t="n">
-        <v>-709873.03051167</v>
+        <v>-709940.2260018958</v>
       </c>
       <c r="F6" t="n">
-        <v>17504.3834817366</v>
+        <v>17437.18799151087</v>
       </c>
       <c r="G6" t="n">
-        <v>17504.38348173664</v>
+        <v>17437.18799151079</v>
       </c>
       <c r="H6" t="n">
-        <v>17504.38348173656</v>
+        <v>17437.18799151078</v>
       </c>
       <c r="I6" t="n">
-        <v>17504.38348173663</v>
+        <v>17437.18799151079</v>
       </c>
       <c r="J6" t="n">
-        <v>-139130.1779812593</v>
+        <v>-139197.3734714853</v>
       </c>
       <c r="K6" t="n">
-        <v>-1960.871836753111</v>
+        <v>-2028.067326978729</v>
       </c>
       <c r="L6" t="n">
-        <v>-34778.35523593934</v>
+        <v>-34778.35523593919</v>
       </c>
       <c r="M6" t="n">
-        <v>-92730.0324358356</v>
+        <v>-92730.03243583556</v>
       </c>
       <c r="N6" t="n">
-        <v>-7988.414476330232</v>
+        <v>-7988.414476330101</v>
       </c>
       <c r="O6" t="n">
-        <v>-7988.414476330217</v>
+        <v>-7988.414476330363</v>
       </c>
       <c r="P6" t="n">
-        <v>-7988.41447633029</v>
+        <v>-7988.414476330247</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>46.97513661859251</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.97513661859251</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.97513661859251</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859255</v>
       </c>
-      <c r="M2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859254</v>
-      </c>
       <c r="P2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.6374684322893</v>
+        <v>312.6374684322899</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26750,7 +26750,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.6552776405953</v>
+        <v>598.6552776405962</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.6374684322893</v>
+        <v>312.6374684322899</v>
       </c>
       <c r="C3" t="n">
-        <v>65.10619578479731</v>
+        <v>65.1061957847968</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.6552776405953</v>
+        <v>598.6552776405962</v>
       </c>
       <c r="C4" t="n">
-        <v>75.63199511396033</v>
+        <v>75.63199511395953</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.6552776405953</v>
+        <v>598.6552776405962</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511396033</v>
+        <v>75.63199511395953</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.0491884540592</v>
+        <v>340.049188454059</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.6552776405953</v>
+        <v>598.6552776405962</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511396033</v>
+        <v>75.63199511395953</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>326.6032504631755</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.0217950910658</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>111.9265593678556</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2451061843206</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>94.09791126995727</v>
+        <v>87.80747157108304</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.24376372694832</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.40598506653475</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>159.192419416944</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4272068744005</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.2147226037219</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>138.4962987703072</v>
       </c>
       <c r="J4" t="n">
-        <v>53.50046549375617</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.95378551841871</v>
+        <v>38.95378551841861</v>
       </c>
       <c r="R4" t="n">
-        <v>25.09806474308819</v>
+        <v>151.9441304121514</v>
       </c>
       <c r="S4" t="n">
         <v>214.1915812011575</v>
@@ -27591,16 +27591,16 @@
         <v>225.5367433600327</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2882781300877</v>
+        <v>85.20383703809622</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>62.81851483808947</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>97.6022906174444</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.7432415002707</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>125.1300645289852</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>226.8011102681247</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>198.7660596017926</v>
       </c>
     </row>
     <row r="9">
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>61.23723517759649</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>17.64056718375451</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.078366212864626e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.078366212864626e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V35" t="n">
-        <v>46.9751366185908</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859375</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859097</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859097</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.256834043948901</v>
+        <v>1.256834043948903</v>
       </c>
       <c r="H2" t="n">
-        <v>12.87155165259168</v>
+        <v>12.87155165259171</v>
       </c>
       <c r="I2" t="n">
-        <v>48.45409447934004</v>
+        <v>48.45409447934014</v>
       </c>
       <c r="J2" t="n">
-        <v>106.6722184376081</v>
+        <v>106.6722184376083</v>
       </c>
       <c r="K2" t="n">
-        <v>159.8740035179651</v>
+        <v>159.8740035179654</v>
       </c>
       <c r="L2" t="n">
-        <v>198.3378383904663</v>
+        <v>198.3378383904667</v>
       </c>
       <c r="M2" t="n">
-        <v>220.6890608195426</v>
+        <v>220.689060819543</v>
       </c>
       <c r="N2" t="n">
-        <v>224.2600405469124</v>
+        <v>224.2600405469128</v>
       </c>
       <c r="O2" t="n">
-        <v>211.7623970223955</v>
+        <v>211.7623970223959</v>
       </c>
       <c r="P2" t="n">
-        <v>180.734306562407</v>
+        <v>180.7343065624073</v>
       </c>
       <c r="Q2" t="n">
-        <v>135.7239373634869</v>
+        <v>135.7239373634872</v>
       </c>
       <c r="R2" t="n">
-        <v>78.9496015132052</v>
+        <v>78.94960151320535</v>
       </c>
       <c r="S2" t="n">
-        <v>28.6401057764856</v>
+        <v>28.64010577648566</v>
       </c>
       <c r="T2" t="n">
-        <v>5.501791027386315</v>
+        <v>5.501791027386326</v>
       </c>
       <c r="U2" t="n">
-        <v>0.100546723515912</v>
+        <v>0.1005467235159122</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.672465498137377</v>
+        <v>0.6724654981373783</v>
       </c>
       <c r="H3" t="n">
-        <v>6.494600995168878</v>
+        <v>6.494600995168891</v>
       </c>
       <c r="I3" t="n">
-        <v>23.15286912446671</v>
+        <v>23.15286912446675</v>
       </c>
       <c r="J3" t="n">
-        <v>63.53324252358438</v>
+        <v>63.53324252358451</v>
       </c>
       <c r="K3" t="n">
-        <v>108.5884308987886</v>
+        <v>108.5884308987888</v>
       </c>
       <c r="L3" t="n">
-        <v>146.0105459881177</v>
+        <v>146.0105459881181</v>
       </c>
       <c r="M3" t="n">
-        <v>170.3874202955976</v>
+        <v>170.387420295598</v>
       </c>
       <c r="N3" t="n">
-        <v>174.8970683072295</v>
+        <v>174.8970683072298</v>
       </c>
       <c r="O3" t="n">
-        <v>159.9966485853434</v>
+        <v>159.9966485853437</v>
       </c>
       <c r="P3" t="n">
-        <v>128.4114160434435</v>
+        <v>128.4114160434438</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.83963095522026</v>
+        <v>85.83963095522043</v>
       </c>
       <c r="R3" t="n">
-        <v>41.75184908610839</v>
+        <v>41.75184908610846</v>
       </c>
       <c r="S3" t="n">
-        <v>12.49075168689381</v>
+        <v>12.49075168689384</v>
       </c>
       <c r="T3" t="n">
-        <v>2.710507863106356</v>
+        <v>2.710507863106361</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0442411511932485</v>
+        <v>0.04424115119324859</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5637724840582264</v>
+        <v>0.5637724840582276</v>
       </c>
       <c r="H4" t="n">
-        <v>5.01244990371769</v>
+        <v>5.0124499037177</v>
       </c>
       <c r="I4" t="n">
-        <v>16.95417615695104</v>
+        <v>16.95417615695107</v>
       </c>
       <c r="J4" t="n">
-        <v>39.85871462291661</v>
+        <v>39.85871462291669</v>
       </c>
       <c r="K4" t="n">
-        <v>65.50011223876484</v>
+        <v>65.50011223876497</v>
       </c>
       <c r="L4" t="n">
-        <v>83.81759276625671</v>
+        <v>83.81759276625688</v>
       </c>
       <c r="M4" t="n">
-        <v>88.37389947832726</v>
+        <v>88.37389947832743</v>
       </c>
       <c r="N4" t="n">
-        <v>86.2725656741103</v>
+        <v>86.27256567411047</v>
       </c>
       <c r="O4" t="n">
-        <v>79.68667801943008</v>
+        <v>79.68667801943023</v>
       </c>
       <c r="P4" t="n">
-        <v>68.18571934464221</v>
+        <v>68.18571934464234</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.20825773327568</v>
+        <v>47.20825773327577</v>
       </c>
       <c r="R4" t="n">
-        <v>25.34926096501807</v>
+        <v>25.34926096501812</v>
       </c>
       <c r="S4" t="n">
-        <v>9.825016835814726</v>
+        <v>9.825016835814745</v>
       </c>
       <c r="T4" t="n">
-        <v>2.408846068248785</v>
+        <v>2.40884606824879</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03075122640317603</v>
+        <v>0.03075122640317609</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32558,7 +32558,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.72292908299559</v>
+        <v>94.7229290829958</v>
       </c>
       <c r="K2" t="n">
-        <v>263.9295650441493</v>
+        <v>263.9295650441496</v>
       </c>
       <c r="L2" t="n">
-        <v>380.2326379709295</v>
+        <v>380.2326379709299</v>
       </c>
       <c r="M2" t="n">
-        <v>439.8563610851023</v>
+        <v>439.8563610851028</v>
       </c>
       <c r="N2" t="n">
-        <v>432.1939013623056</v>
+        <v>432.1939013623061</v>
       </c>
       <c r="O2" t="n">
-        <v>362.4643668634541</v>
+        <v>362.4643668634545</v>
       </c>
       <c r="P2" t="n">
-        <v>271.3000189786201</v>
+        <v>271.3000189786204</v>
       </c>
       <c r="Q2" t="n">
-        <v>125.7332381489421</v>
+        <v>125.7332381489424</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>95.18268104203989</v>
+        <v>95.18268104204206</v>
       </c>
       <c r="L3" t="n">
-        <v>378.2965115117028</v>
+        <v>378.296511511703</v>
       </c>
       <c r="M3" t="n">
-        <v>493.9584501235792</v>
+        <v>493.9584501235796</v>
       </c>
       <c r="N3" t="n">
-        <v>522.8977305674497</v>
+        <v>522.89773056745</v>
       </c>
       <c r="O3" t="n">
-        <v>411.2627234176284</v>
+        <v>411.2627234176288</v>
       </c>
       <c r="P3" t="n">
-        <v>312.8997772690504</v>
+        <v>312.8997772690507</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.9351446050478</v>
+        <v>155.935144605048</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>43.23062041288199</v>
+        <v>43.23062041288212</v>
       </c>
       <c r="L4" t="n">
-        <v>111.4076180265728</v>
+        <v>111.407618026573</v>
       </c>
       <c r="M4" t="n">
-        <v>127.9577764401678</v>
+        <v>127.957776440168</v>
       </c>
       <c r="N4" t="n">
-        <v>130.4047380533389</v>
+        <v>130.4047380533391</v>
       </c>
       <c r="O4" t="n">
-        <v>104.2718059334698</v>
+        <v>104.2718059334699</v>
       </c>
       <c r="P4" t="n">
-        <v>65.4642786095357</v>
+        <v>65.46427860953582</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>629.7598580745224</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
@@ -35422,16 +35422,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>588.5617870086363</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934857</v>
       </c>
       <c r="N13" t="n">
         <v>344.8569461675401</v>
@@ -35647,7 +35647,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>556.5257492814169</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
@@ -35656,13 +35656,13 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>769.2895937392452</v>
       </c>
       <c r="O14" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L17" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>591.6667449080816</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226411</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36133,7 +36133,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>604.1909851575264</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36206,7 +36206,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>575.5896386552618</v>
+        <v>631.5249572352684</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>568.5399380881482</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>589.4383465909569</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>866.6205424822323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>826.9689307863306</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>655.1547664639386</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>597.5775642778399</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165871</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>468.424824492127</v>
       </c>
       <c r="L35" t="n">
-        <v>620.9803766354872</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165871</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>985.2384151567161</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>564.1522484625273</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165871</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120775</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>620.9803766354872</v>
+        <v>577.7620011476556</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37798,7 +37798,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359772</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>614.4119707098154</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>464.5604893068372</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359772</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
